--- a/source/_posts/note/学习计划.xlsx
+++ b/source/_posts/note/学习计划.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\zp\ztutorial\zp-cs\dunwu.github.io\assets\计算机\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\zp\ztutorial\zp-cs\blog\source\_posts\note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94217611-D448-4B62-A12E-1AD3DB2971DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44049D72-72AE-4011-8189-4E9B1E260F47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="89">
   <si>
     <t>学习路线</t>
   </si>
@@ -307,6 +307,10 @@
   </si>
   <si>
     <t>分布式技术原理与算法解析</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>提纲挈领式介绍微服务的关键技术点，适合作为微服务入门学习资料</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -454,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -500,6 +504,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -932,8 +939,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1280,7 +1287,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="2" t="s">
         <v>37</v>
@@ -1291,6 +1298,9 @@
       <c r="D25" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="E25" s="16" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="13" t="s">
@@ -1305,7 +1315,6 @@
       <c r="D26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="14"/>
@@ -1874,6 +1883,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -1883,23 +1904,8 @@
 </settings>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-</allowEditUser>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1910,11 +1916,14 @@
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -1932,7 +1941,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -1941,7 +1950,7 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -1959,7 +1968,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/source/_posts/note/学习计划.xlsx
+++ b/source/_posts/note/学习计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\zp\ztutorial\zp-cs\blog\source\_posts\note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34AAE60-8207-45CD-92F2-9E05C9B73437}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8BB68D-1264-4CC8-984F-A3C7BAC19661}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -193,9 +193,6 @@
     <t>深入浅出计算机组成原理</t>
   </si>
   <si>
-    <t>后端存储实战课</t>
-  </si>
-  <si>
     <t>高并发系统设计</t>
   </si>
   <si>
@@ -320,6 +317,10 @@
   </si>
   <si>
     <t>软件设计之美</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端存储实战课</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -900,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -945,7 +946,7 @@
     </row>
     <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -962,7 +963,7 @@
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
@@ -976,7 +977,7 @@
     </row>
     <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
@@ -1066,7 +1067,7 @@
     </row>
     <row r="10" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
@@ -1132,7 +1133,7 @@
     </row>
     <row r="14" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>15</v>
@@ -1146,7 +1147,7 @@
     </row>
     <row r="15" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>15</v>
@@ -1160,7 +1161,7 @@
     </row>
     <row r="16" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>15</v>
@@ -1175,7 +1176,7 @@
     </row>
     <row r="17" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>15</v>
@@ -1192,7 +1193,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>5</v>
@@ -1206,7 +1207,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>5</v>
@@ -1220,7 +1221,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>5</v>
@@ -1234,7 +1235,7 @@
     </row>
     <row r="21" spans="1:6" ht="99" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>8</v>
@@ -1246,7 +1247,7 @@
         <v>36</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
@@ -1265,7 +1266,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>12</v>
@@ -1279,7 +1280,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>12</v>
@@ -1293,7 +1294,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>12</v>
@@ -1321,7 +1322,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>15</v>
@@ -1349,7 +1350,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>15</v>
@@ -1419,7 +1420,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>12</v>
@@ -1447,7 +1448,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>12</v>
@@ -1513,12 +1514,12 @@
         <v>14</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B41" s="11"/>
       <c r="C41" s="2" t="s">
@@ -1533,7 +1534,7 @@
     </row>
     <row r="42" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="2" t="s">
@@ -1548,7 +1549,7 @@
     </row>
     <row r="43" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="2" t="s">
@@ -1563,7 +1564,7 @@
     </row>
     <row r="44" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="2" t="s">
@@ -1578,14 +1579,14 @@
     </row>
     <row r="45" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="11" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="B45" s="11"/>
       <c r="C45" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>38</v>
@@ -1593,7 +1594,7 @@
     </row>
     <row r="46" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B46" s="11"/>
       <c r="C46" s="11" t="s">
@@ -1608,7 +1609,7 @@
     </row>
     <row r="47" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B47" s="11"/>
       <c r="C47" s="11" t="s">
@@ -1618,12 +1619,12 @@
         <v>9</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
@@ -1637,7 +1638,7 @@
     </row>
     <row r="49" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
@@ -1665,7 +1666,7 @@
     </row>
     <row r="51" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B51" s="11"/>
       <c r="C51" s="2" t="s">
@@ -1681,7 +1682,7 @@
     </row>
     <row r="52" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B52" s="11"/>
       <c r="C52" s="2" t="s">
@@ -1691,12 +1692,12 @@
         <v>9</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B53" s="11"/>
       <c r="C53" s="2" t="s">
@@ -1711,7 +1712,7 @@
     </row>
     <row r="54" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B54" s="11"/>
       <c r="C54" s="2" t="s">
@@ -1726,7 +1727,7 @@
     </row>
     <row r="55" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="2" t="s">
@@ -1741,7 +1742,7 @@
     </row>
     <row r="56" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
@@ -1755,7 +1756,7 @@
     </row>
     <row r="57" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
@@ -1769,7 +1770,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B58" s="11"/>
       <c r="C58" s="2" t="s">
@@ -1784,7 +1785,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B59" s="11"/>
       <c r="C59" s="2" t="s">
@@ -1799,7 +1800,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
@@ -1808,7 +1809,7 @@
         <v>31</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F60" s="13"/>
       <c r="H60" s="9">
@@ -1826,7 +1827,7 @@
         <v>14</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F61" s="13" t="s">
         <v>30</v>
@@ -1834,7 +1835,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
@@ -1843,7 +1844,7 @@
         <v>31</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1904,9 +1905,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-</allowEditUser>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1916,17 +1921,16 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1937,14 +1941,11 @@
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -1962,7 +1963,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -1971,7 +1972,7 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -1989,7 +1990,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
